--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -47,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -94,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,11 +129,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -133,9 +158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -145,6 +167,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,51 +496,71 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>43816</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4216</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1426</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>43850</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -520,18 +570,25 @@
         <v>4717</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D27" si="0">C4-C6</f>
+        <f>C4-C2</f>
         <v>501</v>
       </c>
       <c r="E4" s="2">
         <v>4.49</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
         <v>2249.4900000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>2674.7400000000002</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -540,504 +597,92 @@
         <v>1601</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D7" si="1">C5-C3</f>
         <v>175</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
         <v>425.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43816</v>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43893</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>4216</v>
+        <v>5541</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>824</v>
       </c>
       <c r="E6" s="2">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>1571.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>3699.76</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>4377.7300000000005</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1426</v>
+        <v>1880</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>279</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>328.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43777</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3866</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>1683.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1291</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>167.67000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43749</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3491</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F27" si="2">D10*E10</f>
-        <v>1230.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1222</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>155.52000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43724</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3217</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>1391.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1158</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>157.95000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43648</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2907</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>27.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1093</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>43648</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2901</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>548</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>2504.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>943</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>301.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>43621</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2353</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>1334.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>819</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>40.630000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>43595</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2061</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>1604.0700000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>802</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>327.43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>43562</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1710</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>1658.91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>665</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>370.45000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43529</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1347</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>466</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>2129.6200000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>510</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>468.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>43496</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>881</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>442</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>2019.94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>314</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>442.15000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>43464</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>439</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>129</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+        <v>677.97</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(G4:G7)</f>
+        <v>7052.4700000000012</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(H4:H7)</f>
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11">
+        <f>SUM(H8,-G8)</f>
+        <v>-6.4700000000011642</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,26 +662,77 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="6">
+        <v>43963</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6469</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>928</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>4166.72</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>5126.5700000000006</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2275</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>959.85</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
-        <f>SUM(G4:G7)</f>
-        <v>7052.4700000000012</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUM(H4:H7)</f>
-        <v>7046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="10" t="s">
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>12179.04</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H4:H9)</f>
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11">
-        <f>SUM(H8,-G8)</f>
-        <v>-6.4700000000011642</v>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
+        <v>-6.0400000000008731</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,25 +713,76 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="6">
+        <v>44014</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7016</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>547</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>2456.0300000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>2847.26</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2847.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2436</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="5"/>
+        <v>391.23</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G4:G9)</f>
-        <v>12179.04</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>12173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
+      <c r="G12" s="11">
+        <f>SUM(G4:G11)</f>
+        <v>15026.300000000001</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H4:H11)</f>
+        <v>15020.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
         <v>-6.0400000000008731</v>
       </c>
     </row>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,12 +98,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +181,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,11 +587,11 @@
         <f t="shared" ref="F4:F7" si="0">D4*E4</f>
         <v>2249.4900000000002</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
         <v>2674.7400000000002</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>2668</v>
       </c>
     </row>
@@ -764,26 +771,77 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
+      <c r="A12" s="6">
+        <v>44078</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7620</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>604</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>2844.84</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>3104.94</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3105.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2538</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="7"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM(G4:G11)</f>
-        <v>15026.300000000001</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H4:H11)</f>
-        <v>15020.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="10" t="s">
+      <c r="G14" s="11">
+        <f>SUM(G4:G13)</f>
+        <v>18131.240000000002</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H4:H13)</f>
+        <v>18125.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>-6.0400000000008731</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>-5.8800000000010186</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,25 +822,76 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
+      <c r="A14" s="6">
+        <v>44124</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7880</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>260</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>1224.5999999999999</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1466.85</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1466.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2633</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="9"/>
+        <v>242.24999999999997</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G16" s="11">
         <f>SUM(G4:G13)</f>
         <v>18131.240000000002</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <f>SUM(H4:H13)</f>
         <v>18125.36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
         <v>-5.8800000000010186</v>
       </c>
     </row>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,25 +873,76 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="6">
+        <v>44153</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8123</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
+        <v>243</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>1144.53</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1374.03</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1374.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2723</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="11"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
-        <f>SUM(G4:G13)</f>
-        <v>18131.240000000002</v>
-      </c>
-      <c r="H16" s="11">
-        <f>SUM(H4:H13)</f>
-        <v>18125.36</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
+      <c r="G18" s="11">
+        <f>SUM(G4:G17)</f>
+        <v>20972.12</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H4:H17)</f>
+        <v>20966.239999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
         <v>-5.8800000000010186</v>
       </c>
     </row>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -924,25 +924,76 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
+      <c r="A18" s="6">
+        <v>44194</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8599</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>476</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>2241.96</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>2787.66</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2787.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2937</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="12"/>
+        <v>214</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="13"/>
+        <v>545.69999999999993</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <f>SUM(G4:G17)</f>
         <v>20972.12</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H4:H17)</f>
         <v>20966.239999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
         <v>-5.8800000000010186</v>
       </c>
     </row>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -975,25 +975,127 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="6">
+        <v>44243</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8764</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
+        <v>165</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>777.15</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>948</v>
+      </c>
+      <c r="H20" s="11">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="15"/>
+        <v>170.85</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44316</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9113</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
+        <v>349</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>1643.79</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>1957.44</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3127</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="16"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="17"/>
+        <v>313.64999999999998</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G4:G17)</f>
-        <v>20972.12</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H4:H17)</f>
-        <v>20966.239999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G4:G21)</f>
+        <v>24707.78</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H4:H21)</f>
+        <v>24701.899999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-5.8800000000010186</v>
       </c>
     </row>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,11 +791,11 @@
         <f t="shared" ref="F12:F13" si="7">D12*E12</f>
         <v>2844.84</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
         <v>3104.94</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <v>3105.1</v>
       </c>
     </row>
@@ -1077,26 +1077,77 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
+      <c r="A24" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9308</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="18">C24-C22</f>
+        <v>195</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>918.45</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(F24,F25)</f>
+        <v>1089.3</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3194</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="19"/>
+        <v>170.85</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G4:G21)</f>
-        <v>24707.78</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H4:H21)</f>
-        <v>24701.899999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
+      <c r="G26" s="11">
+        <f>SUM(G4:G25)</f>
+        <v>27754.519999999997</v>
+      </c>
+      <c r="H26" s="11">
+        <f>SUM(H4:H25)</f>
+        <v>27749.899999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-5.8800000000010186</v>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
+        <v>-4.6199999999989814</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,26 +1128,77 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="10" t="s">
+      <c r="A26" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9477</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="20">C26-C24</f>
+        <v>169</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="21">D26*E26</f>
+        <v>795.99</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>892.89</v>
+      </c>
+      <c r="H26" s="11">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3232</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="21"/>
+        <v>96.899999999999991</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
-        <f>SUM(G4:G25)</f>
-        <v>27754.519999999997</v>
-      </c>
-      <c r="H26" s="11">
-        <f>SUM(H4:H25)</f>
-        <v>27749.899999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="10" t="s">
+      <c r="G28" s="11">
+        <f>SUM(G4:G27)</f>
+        <v>28647.409999999996</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(H4:H27)</f>
+        <v>28642.899999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
-        <v>-4.6199999999989814</v>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
+        <v>-4.5099999999983993</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,26 +1179,77 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="10" t="s">
+      <c r="A28" s="6">
+        <v>44435</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9706</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="22">C28-C26</f>
+        <v>229</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="23">D28*E28</f>
+        <v>1135.8399999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(F28,F29)</f>
+        <v>1261.8</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1198.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3279</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="23"/>
+        <v>125.96000000000001</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11">
-        <f>SUM(G4:G27)</f>
-        <v>28647.409999999996</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(H4:H27)</f>
-        <v>28642.899999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="10" t="s">
+      <c r="G30" s="11">
+        <f>SUM(G4:G29)</f>
+        <v>29909.209999999995</v>
+      </c>
+      <c r="H30" s="11">
+        <f>SUM(H4:H29)</f>
+        <v>29841.339999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
-        <v>-4.5099999999983993</v>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11">
+        <f>SUM(H30,-G30)</f>
+        <v>-67.869999999998981</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/52ee.xlsx
+++ b/sputnik/personal/ee/52ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -92,7 +92,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +179,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,10 +491,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,31 +540,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44435</v>
+        <v>44547</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>9706</v>
+        <v>9906</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="E2" s="2">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F5" si="1">D2*E2</f>
-        <v>1135.8399999999999</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>992</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1261.8</v>
+        <v>1260</v>
       </c>
       <c r="H2" s="10">
-        <v>1198.44</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,49 +573,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>3279</v>
+        <v>3379</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>125.96000000000001</v>
+        <v>268</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44377</v>
+      <c r="A4" s="12">
+        <v>44435</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>9477</v>
+        <v>9706</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>169</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>229</v>
       </c>
       <c r="E4" s="2">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>795.99</v>
+        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
+        <v>1135.8399999999999</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>892.89</v>
+        <v>1261.8</v>
       </c>
       <c r="H4" s="10">
-        <v>893</v>
+        <v>1198.44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,37 +624,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3232</v>
+        <v>3279</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C7</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>96.899999999999991</v>
+        <f t="shared" si="3"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44350</v>
+        <v>44377</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>9308</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+        <v>9477</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C8</f>
+        <v>169</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="3"/>
+        <v>795.99</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>892.89</v>
+      </c>
+      <c r="H6" s="10">
+        <v>893</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -653,35 +675,73 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>3194</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+        <v>3232</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C9</f>
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>96.899999999999991</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9308</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3194</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>2154.69</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>2091.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>3414.69</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>3288.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
-        <v>-63.25</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>-126.25</v>
       </c>
     </row>
   </sheetData>
